--- a/Modelling_Practice_Dataset.xlsx
+++ b/Modelling_Practice_Dataset.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\trial_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Sales" sheetId="5" r:id="rId5"/>
     <sheet name="Calendar" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -168,11 +173,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -282,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +362,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,14 +538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -552,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -563,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -574,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -585,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -596,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -607,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -618,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -627,6 +644,11 @@
       </c>
       <c r="C9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -635,14 +657,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -650,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -658,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -666,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -680,14 +702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -709,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -720,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -731,7 +753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -742,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -759,14 +781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -774,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -782,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -796,14 +818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -826,7 +848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,7 +871,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,7 +894,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -895,7 +917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -918,7 +940,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -941,7 +963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -964,7 +986,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -987,7 +1009,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1010,7 +1032,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1033,7 +1055,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1056,7 +1078,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1102,7 +1124,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1171,7 +1193,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1217,7 +1239,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1292,14 +1314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1333,7 +1355,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44928</v>
       </c>
@@ -1350,7 +1372,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44929</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44930</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44931</v>
       </c>
@@ -1401,7 +1423,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44932</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44933</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44934</v>
       </c>
@@ -1452,7 +1474,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44935</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44936</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44937</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44938</v>
       </c>
@@ -1520,7 +1542,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44939</v>
       </c>
@@ -1537,7 +1559,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44940</v>
       </c>
@@ -1554,7 +1576,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44941</v>
       </c>
@@ -1571,7 +1593,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44942</v>
       </c>
@@ -1588,7 +1610,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44943</v>
       </c>
@@ -1605,7 +1627,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44944</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44945</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44946</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44947</v>
       </c>
@@ -1673,7 +1695,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44948</v>
       </c>
@@ -1690,7 +1712,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44949</v>
       </c>
@@ -1707,7 +1729,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44950</v>
       </c>
@@ -1724,7 +1746,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44951</v>
       </c>
@@ -1741,7 +1763,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44952</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44953</v>
       </c>
@@ -1775,7 +1797,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44954</v>
       </c>
@@ -1792,7 +1814,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44955</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44956</v>
       </c>
@@ -1826,7 +1848,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44957</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44958</v>
       </c>
@@ -1860,7 +1882,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44959</v>
       </c>
@@ -1877,7 +1899,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44960</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44961</v>
       </c>
@@ -1911,7 +1933,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44962</v>
       </c>
@@ -1928,7 +1950,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44963</v>
       </c>
@@ -1945,7 +1967,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44964</v>
       </c>
@@ -1962,7 +1984,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44965</v>
       </c>
@@ -1979,7 +2001,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44966</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44967</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44968</v>
       </c>
@@ -2030,7 +2052,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44969</v>
       </c>
@@ -2047,7 +2069,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44970</v>
       </c>
@@ -2064,7 +2086,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44971</v>
       </c>
@@ -2081,7 +2103,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44972</v>
       </c>
@@ -2098,7 +2120,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44973</v>
       </c>
@@ -2115,7 +2137,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44974</v>
       </c>
@@ -2132,7 +2154,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44975</v>
       </c>
@@ -2149,7 +2171,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44976</v>
       </c>
@@ -2166,7 +2188,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44977</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44978</v>
       </c>
@@ -2200,7 +2222,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44979</v>
       </c>
@@ -2217,7 +2239,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44980</v>
       </c>
@@ -2234,7 +2256,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44981</v>
       </c>
@@ -2251,7 +2273,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44982</v>
       </c>
@@ -2268,7 +2290,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44983</v>
       </c>
@@ -2285,7 +2307,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44984</v>
       </c>
@@ -2302,7 +2324,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44985</v>
       </c>
@@ -2319,7 +2341,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44986</v>
       </c>
@@ -2336,7 +2358,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44987</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44988</v>
       </c>
@@ -2370,7 +2392,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44989</v>
       </c>
@@ -2387,7 +2409,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44990</v>
       </c>
@@ -2404,7 +2426,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44991</v>
       </c>
@@ -2421,7 +2443,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44992</v>
       </c>
@@ -2438,7 +2460,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44993</v>
       </c>
@@ -2455,7 +2477,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44994</v>
       </c>
@@ -2472,7 +2494,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44995</v>
       </c>
@@ -2489,7 +2511,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44996</v>
       </c>
@@ -2506,7 +2528,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44997</v>
       </c>
@@ -2523,7 +2545,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44998</v>
       </c>
@@ -2540,7 +2562,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44999</v>
       </c>
@@ -2557,7 +2579,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45000</v>
       </c>
@@ -2574,7 +2596,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45001</v>
       </c>
@@ -2591,7 +2613,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45002</v>
       </c>
@@ -2608,7 +2630,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45003</v>
       </c>
@@ -2625,7 +2647,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45004</v>
       </c>
@@ -2642,7 +2664,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45005</v>
       </c>
@@ -2659,7 +2681,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45006</v>
       </c>
@@ -2676,7 +2698,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45007</v>
       </c>
@@ -2693,7 +2715,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45008</v>
       </c>
@@ -2710,7 +2732,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45009</v>
       </c>
@@ -2727,7 +2749,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45010</v>
       </c>
@@ -2744,7 +2766,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45011</v>
       </c>
@@ -2761,7 +2783,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45012</v>
       </c>
@@ -2778,7 +2800,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45013</v>
       </c>
@@ -2795,7 +2817,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45014</v>
       </c>
@@ -2812,7 +2834,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45015</v>
       </c>
@@ -2829,7 +2851,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45016</v>
       </c>
@@ -2846,7 +2868,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45017</v>
       </c>
@@ -2863,7 +2885,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45018</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45019</v>
       </c>
@@ -2897,7 +2919,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45020</v>
       </c>
@@ -2914,7 +2936,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45021</v>
       </c>
@@ -2931,7 +2953,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45022</v>
       </c>
@@ -2948,7 +2970,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45023</v>
       </c>
@@ -2965,7 +2987,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45024</v>
       </c>
@@ -2982,7 +3004,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45025</v>
       </c>
@@ -2999,7 +3021,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45026</v>
       </c>
@@ -3016,7 +3038,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45027</v>
       </c>
@@ -3033,7 +3055,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45028</v>
       </c>
@@ -3050,7 +3072,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45029</v>
       </c>
@@ -3067,7 +3089,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45030</v>
       </c>
@@ -3084,7 +3106,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45031</v>
       </c>
@@ -3101,7 +3123,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45032</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45033</v>
       </c>
@@ -3135,7 +3157,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45034</v>
       </c>
@@ -3152,7 +3174,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45035</v>
       </c>
@@ -3169,7 +3191,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45036</v>
       </c>
@@ -3186,7 +3208,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45037</v>
       </c>
@@ -3203,7 +3225,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45038</v>
       </c>
@@ -3220,7 +3242,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45039</v>
       </c>
@@ -3237,7 +3259,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45040</v>
       </c>
@@ -3254,7 +3276,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45041</v>
       </c>
@@ -3271,7 +3293,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45042</v>
       </c>
@@ -3288,7 +3310,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45043</v>
       </c>
@@ -3305,7 +3327,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45044</v>
       </c>
@@ -3322,7 +3344,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45045</v>
       </c>
@@ -3339,7 +3361,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45046</v>
       </c>
@@ -3356,7 +3378,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45047</v>
       </c>
@@ -3373,7 +3395,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45048</v>
       </c>
@@ -3390,7 +3412,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45049</v>
       </c>
@@ -3407,7 +3429,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45050</v>
       </c>
@@ -3424,7 +3446,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45051</v>
       </c>
@@ -3441,7 +3463,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45052</v>
       </c>
@@ -3458,7 +3480,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45053</v>
       </c>
@@ -3475,7 +3497,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45054</v>
       </c>
@@ -3492,7 +3514,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45055</v>
       </c>
@@ -3509,7 +3531,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45056</v>
       </c>
@@ -3526,7 +3548,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45057</v>
       </c>
@@ -3543,7 +3565,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45058</v>
       </c>
@@ -3560,7 +3582,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45059</v>
       </c>
@@ -3577,7 +3599,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45060</v>
       </c>
@@ -3594,7 +3616,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45061</v>
       </c>
@@ -3611,7 +3633,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45062</v>
       </c>
@@ -3628,7 +3650,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45063</v>
       </c>
@@ -3645,7 +3667,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>45064</v>
       </c>
@@ -3662,7 +3684,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45065</v>
       </c>
@@ -3679,7 +3701,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45066</v>
       </c>
@@ -3696,7 +3718,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45067</v>
       </c>
@@ -3713,7 +3735,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45068</v>
       </c>
@@ -3730,7 +3752,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45069</v>
       </c>
@@ -3747,7 +3769,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45070</v>
       </c>
@@ -3764,7 +3786,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45071</v>
       </c>
@@ -3781,7 +3803,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45072</v>
       </c>
@@ -3798,7 +3820,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45073</v>
       </c>
@@ -3815,7 +3837,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45074</v>
       </c>
@@ -3832,7 +3854,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45075</v>
       </c>
@@ -3849,7 +3871,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45076</v>
       </c>
@@ -3866,7 +3888,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45077</v>
       </c>
@@ -3883,7 +3905,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45078</v>
       </c>
@@ -3900,7 +3922,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45079</v>
       </c>
@@ -3917,7 +3939,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45080</v>
       </c>
@@ -3934,7 +3956,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45081</v>
       </c>
@@ -3951,7 +3973,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45082</v>
       </c>
@@ -3968,7 +3990,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45083</v>
       </c>
@@ -3985,7 +4007,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45084</v>
       </c>
@@ -4002,7 +4024,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45085</v>
       </c>
@@ -4019,7 +4041,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45086</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45087</v>
       </c>
@@ -4053,7 +4075,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>45088</v>
       </c>
@@ -4070,7 +4092,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>45089</v>
       </c>
@@ -4087,7 +4109,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>45090</v>
       </c>
@@ -4104,7 +4126,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>45091</v>
       </c>
@@ -4121,7 +4143,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>45092</v>
       </c>
@@ -4138,7 +4160,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>45093</v>
       </c>
@@ -4155,7 +4177,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>45094</v>
       </c>
@@ -4172,7 +4194,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>45095</v>
       </c>
@@ -4189,7 +4211,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>45096</v>
       </c>
@@ -4206,7 +4228,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>45097</v>
       </c>
@@ -4223,7 +4245,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>45098</v>
       </c>
@@ -4240,7 +4262,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>45099</v>
       </c>
@@ -4257,7 +4279,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>45100</v>
       </c>
@@ -4274,7 +4296,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>45101</v>
       </c>
@@ -4291,7 +4313,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>45102</v>
       </c>
@@ -4308,7 +4330,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>45103</v>
       </c>
@@ -4325,7 +4347,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>45104</v>
       </c>
@@ -4342,7 +4364,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>45105</v>
       </c>
@@ -4359,7 +4381,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>45106</v>
       </c>
@@ -4376,7 +4398,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>45107</v>
       </c>
@@ -4393,7 +4415,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>45108</v>
       </c>
@@ -4410,7 +4432,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>45109</v>
       </c>
@@ -4427,7 +4449,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>45110</v>
       </c>
@@ -4444,7 +4466,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>45111</v>
       </c>
@@ -4461,7 +4483,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>45112</v>
       </c>
@@ -4478,7 +4500,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>45113</v>
       </c>
@@ -4495,7 +4517,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>45114</v>
       </c>
@@ -4512,7 +4534,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>45115</v>
       </c>
@@ -4529,7 +4551,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>45116</v>
       </c>
@@ -4546,7 +4568,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>45117</v>
       </c>
@@ -4563,7 +4585,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>45118</v>
       </c>
@@ -4580,7 +4602,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>45119</v>
       </c>
@@ -4597,7 +4619,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>45120</v>
       </c>
@@ -4614,7 +4636,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>45121</v>
       </c>
@@ -4631,7 +4653,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>45122</v>
       </c>
@@ -4648,7 +4670,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>45123</v>
       </c>
@@ -4665,7 +4687,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>45124</v>
       </c>
@@ -4682,7 +4704,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>45125</v>
       </c>
@@ -4699,7 +4721,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>45126</v>
       </c>
@@ -4716,7 +4738,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>45127</v>
       </c>
@@ -4733,7 +4755,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>45128</v>
       </c>
@@ -4750,7 +4772,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>45129</v>
       </c>
@@ -4767,7 +4789,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>45130</v>
       </c>
@@ -4784,7 +4806,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>45131</v>
       </c>
@@ -4801,7 +4823,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>45132</v>
       </c>
@@ -4818,7 +4840,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>45133</v>
       </c>
@@ -4835,7 +4857,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>45134</v>
       </c>
@@ -4852,7 +4874,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>45135</v>
       </c>
@@ -4869,7 +4891,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>45136</v>
       </c>
@@ -4886,7 +4908,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>45137</v>
       </c>
@@ -4903,7 +4925,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>45138</v>
       </c>
@@ -4920,7 +4942,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>45139</v>
       </c>
@@ -4937,7 +4959,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>45140</v>
       </c>
@@ -4954,7 +4976,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>45141</v>
       </c>
@@ -4971,7 +4993,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>45142</v>
       </c>
@@ -4988,7 +5010,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>45143</v>
       </c>
@@ -5005,7 +5027,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>45144</v>
       </c>
@@ -5022,7 +5044,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>45145</v>
       </c>
@@ -5039,7 +5061,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>45146</v>
       </c>
@@ -5056,7 +5078,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>45147</v>
       </c>
@@ -5073,7 +5095,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>45148</v>
       </c>
@@ -5090,7 +5112,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>45149</v>
       </c>
@@ -5107,7 +5129,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>45150</v>
       </c>
@@ -5124,7 +5146,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>45151</v>
       </c>
@@ -5141,7 +5163,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>45152</v>
       </c>
@@ -5158,7 +5180,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>45153</v>
       </c>
@@ -5175,7 +5197,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>45154</v>
       </c>
@@ -5192,7 +5214,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>45155</v>
       </c>
@@ -5209,7 +5231,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>45156</v>
       </c>
@@ -5226,7 +5248,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>45157</v>
       </c>
@@ -5243,7 +5265,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>45158</v>
       </c>
@@ -5260,7 +5282,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>45159</v>
       </c>
@@ -5277,7 +5299,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>45160</v>
       </c>
@@ -5294,7 +5316,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>45161</v>
       </c>
@@ -5311,7 +5333,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>45162</v>
       </c>
@@ -5328,7 +5350,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>45163</v>
       </c>
@@ -5345,7 +5367,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>45164</v>
       </c>
@@ -5362,7 +5384,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>45165</v>
       </c>
@@ -5379,7 +5401,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>45166</v>
       </c>
@@ -5396,7 +5418,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>45167</v>
       </c>
@@ -5413,7 +5435,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>45168</v>
       </c>
@@ -5430,7 +5452,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>45169</v>
       </c>
@@ -5447,7 +5469,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>45170</v>
       </c>
@@ -5464,7 +5486,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>45171</v>
       </c>
@@ -5481,7 +5503,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>45172</v>
       </c>
@@ -5498,7 +5520,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>45173</v>
       </c>
@@ -5515,7 +5537,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>45174</v>
       </c>
@@ -5532,7 +5554,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>45175</v>
       </c>
@@ -5549,7 +5571,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>45176</v>
       </c>
@@ -5566,7 +5588,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>45177</v>
       </c>
@@ -5583,7 +5605,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>45178</v>
       </c>
@@ -5600,7 +5622,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>45179</v>
       </c>
@@ -5617,7 +5639,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>45180</v>
       </c>
@@ -5634,7 +5656,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>45181</v>
       </c>
@@ -5651,7 +5673,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>45182</v>
       </c>
@@ -5668,7 +5690,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>45183</v>
       </c>
@@ -5685,7 +5707,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>45184</v>
       </c>
@@ -5702,7 +5724,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>45185</v>
       </c>
@@ -5719,7 +5741,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>45186</v>
       </c>
@@ -5736,7 +5758,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>45187</v>
       </c>
@@ -5753,7 +5775,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>45188</v>
       </c>
@@ -5770,7 +5792,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>45189</v>
       </c>
@@ -5787,7 +5809,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>45190</v>
       </c>
@@ -5804,7 +5826,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>45191</v>
       </c>
@@ -5821,7 +5843,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>45192</v>
       </c>
@@ -5838,7 +5860,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>45193</v>
       </c>
@@ -5855,7 +5877,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>45194</v>
       </c>
@@ -5872,7 +5894,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>45195</v>
       </c>
@@ -5889,7 +5911,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>45196</v>
       </c>
@@ -5906,7 +5928,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>45197</v>
       </c>
@@ -5923,7 +5945,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>45198</v>
       </c>
@@ -5940,7 +5962,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>45199</v>
       </c>
@@ -5957,7 +5979,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>45200</v>
       </c>
@@ -5974,7 +5996,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>45201</v>
       </c>
@@ -5991,7 +6013,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>45202</v>
       </c>
@@ -6008,7 +6030,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>45203</v>
       </c>
@@ -6025,7 +6047,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>45204</v>
       </c>
@@ -6042,7 +6064,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>45205</v>
       </c>
@@ -6059,7 +6081,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>45206</v>
       </c>
@@ -6076,7 +6098,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>45207</v>
       </c>
@@ -6093,7 +6115,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>45208</v>
       </c>
@@ -6110,7 +6132,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>45209</v>
       </c>
@@ -6127,7 +6149,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>45210</v>
       </c>
@@ -6144,7 +6166,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>45211</v>
       </c>
@@ -6161,7 +6183,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>45212</v>
       </c>
@@ -6178,7 +6200,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>45213</v>
       </c>
@@ -6195,7 +6217,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>45214</v>
       </c>
@@ -6212,7 +6234,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>45215</v>
       </c>
@@ -6229,7 +6251,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>45216</v>
       </c>
@@ -6246,7 +6268,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>45217</v>
       </c>
@@ -6263,7 +6285,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>45218</v>
       </c>
@@ -6280,7 +6302,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>45219</v>
       </c>
@@ -6297,7 +6319,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>45220</v>
       </c>
@@ -6314,7 +6336,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>45221</v>
       </c>
@@ -6331,7 +6353,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>45222</v>
       </c>
@@ -6348,7 +6370,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>45223</v>
       </c>
@@ -6365,7 +6387,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>45224</v>
       </c>
@@ -6382,7 +6404,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>45225</v>
       </c>
@@ -6399,7 +6421,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>45226</v>
       </c>
@@ -6416,7 +6438,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>45227</v>
       </c>
@@ -6433,7 +6455,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>45228</v>
       </c>
@@ -6450,7 +6472,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>45229</v>
       </c>
@@ -6467,7 +6489,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>45230</v>
       </c>
@@ -6484,7 +6506,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>45231</v>
       </c>
@@ -6501,7 +6523,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>45232</v>
       </c>
@@ -6518,7 +6540,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>45233</v>
       </c>
@@ -6535,7 +6557,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>45234</v>
       </c>
@@ -6552,7 +6574,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>45235</v>
       </c>
@@ -6569,7 +6591,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>45236</v>
       </c>
@@ -6586,7 +6608,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>45237</v>
       </c>
@@ -6603,7 +6625,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>45238</v>
       </c>
@@ -6620,7 +6642,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>45239</v>
       </c>
@@ -6637,7 +6659,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>45240</v>
       </c>
@@ -6654,7 +6676,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>45241</v>
       </c>
@@ -6671,7 +6693,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>45242</v>
       </c>
@@ -6688,7 +6710,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>45243</v>
       </c>
@@ -6705,7 +6727,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>45244</v>
       </c>
@@ -6722,7 +6744,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>45245</v>
       </c>
@@ -6739,7 +6761,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>45246</v>
       </c>
@@ -6756,7 +6778,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>45247</v>
       </c>
@@ -6773,7 +6795,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>45248</v>
       </c>
@@ -6790,7 +6812,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>45249</v>
       </c>
@@ -6807,7 +6829,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>45250</v>
       </c>
@@ -6824,7 +6846,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>45251</v>
       </c>
@@ -6841,7 +6863,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>45252</v>
       </c>
@@ -6858,7 +6880,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>45253</v>
       </c>
@@ -6875,7 +6897,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>45254</v>
       </c>
@@ -6892,7 +6914,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>45255</v>
       </c>
@@ -6909,7 +6931,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>45256</v>
       </c>
@@ -6926,7 +6948,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>45257</v>
       </c>
@@ -6943,7 +6965,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>45258</v>
       </c>
@@ -6960,7 +6982,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>45259</v>
       </c>
@@ -6977,7 +6999,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>45260</v>
       </c>
@@ -6994,7 +7016,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>45261</v>
       </c>
@@ -7011,7 +7033,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>45262</v>
       </c>
@@ -7028,7 +7050,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>45263</v>
       </c>
@@ -7045,7 +7067,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>45264</v>
       </c>
@@ -7062,7 +7084,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>45265</v>
       </c>
@@ -7079,7 +7101,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>45266</v>
       </c>
@@ -7096,7 +7118,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>45267</v>
       </c>
@@ -7113,7 +7135,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>45268</v>
       </c>
@@ -7130,7 +7152,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>45269</v>
       </c>
@@ -7147,7 +7169,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>45270</v>
       </c>
@@ -7164,7 +7186,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>45271</v>
       </c>
@@ -7181,7 +7203,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>45272</v>
       </c>
@@ -7198,7 +7220,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>45273</v>
       </c>
@@ -7215,7 +7237,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>45274</v>
       </c>
@@ -7232,7 +7254,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>45275</v>
       </c>
@@ -7249,7 +7271,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>45276</v>
       </c>
@@ -7266,7 +7288,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>45277</v>
       </c>
@@ -7283,7 +7305,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>45278</v>
       </c>
@@ -7300,7 +7322,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>45279</v>
       </c>
@@ -7317,7 +7339,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>45280</v>
       </c>
@@ -7334,7 +7356,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>45281</v>
       </c>
@@ -7351,7 +7373,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>45282</v>
       </c>
@@ -7368,7 +7390,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>45283</v>
       </c>
@@ -7385,7 +7407,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>45284</v>
       </c>
@@ -7402,7 +7424,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>45285</v>
       </c>
@@ -7419,7 +7441,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>45286</v>
       </c>
@@ -7436,7 +7458,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>45287</v>
       </c>
@@ -7453,7 +7475,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>45288</v>
       </c>
@@ -7470,7 +7492,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>45289</v>
       </c>
@@ -7487,7 +7509,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>45290</v>
       </c>
@@ -7504,7 +7526,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>45291</v>
       </c>

--- a/Modelling_Practice_Dataset.xlsx
+++ b/Modelling_Practice_Dataset.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
